--- a/biology/Botanique/Strophaire_vert-de-gris/Strophaire_vert-de-gris.xlsx
+++ b/biology/Botanique/Strophaire_vert-de-gris/Strophaire_vert-de-gris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stropharia aeruginosa
 Stropharia aeruginosa, le strophaire vert-de-gris, est une espèce de champignons basidiomycètes de la famille des strophariacées. C'est l'espèce type du genre Stropharia.
@@ -512,7 +524,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapeau visqueux de couleur vert-de-gris (3 à 7 cm de diamètre), souvent plus foncé dans sa partie centrale, qui a le bord garni de mèches blanches noyées dans une substance gluante.
 Son pied bleu-verdâtre (5-9 x 0,5-1 cm), bien en chair, est également parsemé de petites mèches caduques de couleur blanches et possède un  anneau  étroit, membraneux et visqueux.
@@ -546,7 +560,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom scientifique provient de l'adjectif latin : aeruginosus, érugineux en français soutenu, qui qualifie la couleur de l'airain (aes), c’est-à-dire du cuivre ou du bronze, oxydé ; ce vert-de-gris, parfois bleuté, est caractéristique de ce champignon.
 </t>
@@ -577,7 +593,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il pousse au sol dans tous les bois, dans les feuilles mortes, le long des sentiers et particulièrement dans les endroits riches en fumures organiques, de l'été à la fin de l'automne.
 </t>
@@ -608,7 +626,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un champignon qui n'est pas considéré comme toxique mais qui est de tellement mauvaise qualité que cela ne vaut pas la peine de se risquer à le manger.
 </t>
